--- a/Data/ReproductionTime_ControlGroup.xlsx
+++ b/Data/ReproductionTime_ControlGroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gabriel2\Documents\Projets\Indico-LearningAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gabriel2\Documents\Projets\github-ERPI\Indico-LearningAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063E1F7-197A-4B46-9807-AB75F0831885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C9E952-598B-4CB2-911E-55908CB9F6D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5352" xr2:uid="{C4CCEF11-4B3F-4663-BE4E-752E4A344F58}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Participant ID</t>
   </si>
@@ -70,6 +70,48 @@
   </si>
   <si>
     <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
   </si>
 </sst>
 </file>
@@ -421,124 +463,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B955F381-FD5A-4E32-A884-1C93585DE508}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>344</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>256</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>218</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>455</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>263</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>277</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>220</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>266</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
